--- a/biology/Botanique/Nuytsia_(journal)/Nuytsia_(journal).xlsx
+++ b/biology/Botanique/Nuytsia_(journal)/Nuytsia_(journal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nuytsia est une revue scientifique à comité de lecture (peer-reviewed) publiée par l'herbier de Perth (Australie-Occidentale). Elle publie des articles de Systématique Botanique, préférentiellement consacrés à la flore d'Australie Occidentale. Près de 40 % des taxons de cette partie de l'Australie ont été publiés dans Nuytsia. Le journal a été fondé en 1970 et est édité périodiquement depuis. Le rédacteur en chef est Kevin Thiele.
 Le nom Nuytsia a été donné d'après le genre monospécifique Nuytsia, dont la seule espèce est Nuytsia floribunda, l'arbre de Noël bien connu de l'Australie occidentale.
-Occasionnellement, le journal a publié des numéros spéciaux, notamment en 2007, élargissant sensiblement son aire originelle de description d'espèces végétales[1].
+Occasionnellement, le journal a publié des numéros spéciaux, notamment en 2007, élargissant sensiblement son aire originelle de description d'espèces végétales.
 </t>
         </is>
       </c>
